--- a/noptien/k77.xlsx
+++ b/noptien/k77.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A54093-FAD6-4E1B-A8D4-DD1F6856D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884217D7-7E31-460D-848A-8C3717FB003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LE_PHI" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LE_PHI!$A$1:$R$143</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -4762,10 +4765,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:HP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="F41" workbookViewId="0">
+      <selection activeCell="L103" sqref="L3:L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,7 +4833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="63" t="s">
         <v>26</v>
@@ -4921,7 +4925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -5623,7 +5627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -6589,7 +6593,7 @@
       <c r="HO30" s="52"/>
       <c r="HP30" s="52"/>
     </row>
-    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -7563,7 +7567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -8267,7 +8271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -8431,7 +8435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -8539,7 +8543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -8647,7 +8651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -8865,7 +8869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -8921,7 +8925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -9137,7 +9141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -9463,7 +9467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -9575,7 +9579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -9631,7 +9635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -9687,7 +9691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -9799,7 +9803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -9855,7 +9859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -10937,7 +10941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -10991,7 +10995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -11045,7 +11049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -11099,7 +11103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -11209,7 +11213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -11319,7 +11323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -11427,7 +11431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -11481,7 +11485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -11535,7 +11539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -11589,7 +11593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -11751,7 +11755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -11805,7 +11809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -11913,7 +11917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>130</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -12241,7 +12245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -12349,7 +12353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -12457,7 +12461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45">
         <v>141</v>
       </c>
@@ -13875,6 +13879,25 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:R143" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="TM"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
